--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/42/word_level_predictions_42.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K35" t="b">
-        <v>1</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
+      <c r="A180" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" t="n">
+      <c r="D180" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="F180" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
+      <c r="A181" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B181" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C181" s="2" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" t="n">
+      <c r="D181" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
+      <c r="A182" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B182" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" t="n">
+      <c r="D182" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
+      <c r="A183" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D183" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
+      <c r="A184" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" t="n">
+      <c r="D184" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" t="b">
-        <v>1</v>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K184" t="b">
-        <v>1</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K184" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L184" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
+      <c r="A185" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" t="n">
+      <c r="D185" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" t="b">
-        <v>1</v>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K185" t="b">
-        <v>1</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G185" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K185" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
+      <c r="A186" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" t="n">
+      <c r="D186" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G186" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" t="b">
-        <v>1</v>
-      </c>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K186" t="b">
-        <v>1</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E186" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G186" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
+      <c r="A187" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="B187" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="C187" s="2" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" t="n">
+      <c r="D187" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G187" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" t="b">
-        <v>1</v>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K187" t="b">
-        <v>1</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G187" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K187" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L187" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
+      <c r="A188" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D188" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G188" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" t="b">
-        <v>1</v>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K188" t="b">
-        <v>1</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E188" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G188" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L188" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
+      <c r="A190" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B190" s="2" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C190" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" t="n">
+      <c r="D190" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="E190" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_original/ori1/42/word_level_predictions_42.xlsx
@@ -2114,210 +2114,210 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Home</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Point</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>7</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" t="n">
         <v>2</v>
       </c>
-      <c r="B35" s="2" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C35" s="2" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" t="n">
         <v>8</v>
       </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Aircraft GPS signal too weak . Home Point not updated .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>9</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9758,574 +9758,574 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>14</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>Propulsion</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>3</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>14</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>output</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>4</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>14</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>5</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>14</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>limited</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>6</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" t="n">
         <v>14</v>
       </c>
-      <c r="B184" s="2" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C184" s="2" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D184" s="2" t="n">
+      <c r="D184" t="n">
         <v>7</v>
       </c>
-      <c r="E184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F184" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G184" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H184" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L184" s="2" t="inlineStr">
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G184" t="b">
+        <v>1</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" t="n">
         <v>14</v>
       </c>
-      <c r="B185" s="2" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C185" s="2" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D185" s="2" t="n">
+      <c r="D185" t="n">
         <v>8</v>
       </c>
-      <c r="E185" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F185" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G185" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K185" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L185" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G185" t="b">
+        <v>1</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I185" t="b">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" t="n">
         <v>14</v>
       </c>
-      <c r="B186" s="2" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C186" s="2" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D186" s="2" t="n">
+      <c r="D186" t="n">
         <v>9</v>
       </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H186" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G186" t="b">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" t="n">
         <v>14</v>
       </c>
-      <c r="B187" s="2" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C187" s="2" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>health</t>
         </is>
       </c>
-      <c r="D187" s="2" t="n">
+      <c r="D187" t="n">
         <v>10</v>
       </c>
-      <c r="E187" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F187" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G187" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H187" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K187" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L187" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G187" t="b">
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" t="n">
         <v>14</v>
       </c>
-      <c r="B188" s="2" t="inlineStr">
+      <c r="B188" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D188" s="2" t="n">
+      <c r="D188" t="n">
         <v>11</v>
       </c>
-      <c r="E188" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F188" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G188" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L188" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G188" t="b">
+        <v>1</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I188" t="b">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K188" t="b">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>14</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
+      <c r="D189" t="n">
         <v>12</v>
       </c>
-      <c r="E189" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F189" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>14</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
+      <c r="D190" t="n">
         <v>13</v>
       </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G236" t="b">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G237" t="b">
@@ -12769,7 +12769,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
